--- a/Entregable 18.10/Arquitectura de software.xlsx
+++ b/Entregable 18.10/Arquitectura de software.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mausa\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mausa\Documents\Proyecto Sparc\trunk\Entregable 18.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A724EA5B-DD85-4217-AC2A-FAB17E62A738}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3937ABDC-407E-43A0-B51E-D6A628BA8B00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{63F2E99F-36F6-46AE-BA0B-A487F0CAEC5C}"/>
+    <workbookView xWindow="2460" yWindow="2460" windowWidth="15375" windowHeight="7875" xr2:uid="{63F2E99F-36F6-46AE-BA0B-A487F0CAEC5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="18">
-  <si>
-    <t>Microcontrolador</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Comunicación UART</t>
   </si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>SPARC</t>
+  </si>
+  <si>
+    <t>Microcontrolador PIC18F4550</t>
   </si>
 </sst>
 </file>
@@ -267,31 +267,17 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -301,8 +287,22 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -622,7 +622,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,107 +635,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="18"/>
+      <c r="A1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
-        <v>16</v>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="17"/>
+      <c r="A7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="13"/>
       <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="D8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="6" t="s">
         <v>3</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="A10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="A11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Entregable 18.10/Arquitectura de software.xlsx
+++ b/Entregable 18.10/Arquitectura de software.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mausa\Documents\Proyecto Sparc\trunk\Entregable 18.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3937ABDC-407E-43A0-B51E-D6A628BA8B00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31B19F8-9ABB-4FA6-A6EA-DB7733C43602}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2460" windowWidth="15375" windowHeight="7875" xr2:uid="{63F2E99F-36F6-46AE-BA0B-A487F0CAEC5C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{63F2E99F-36F6-46AE-BA0B-A487F0CAEC5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,23 +31,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Comunicación UART</t>
   </si>
   <si>
-    <t>PWM</t>
-  </si>
-  <si>
     <t>GPIO</t>
   </si>
   <si>
     <t>Interrupciones</t>
   </si>
   <si>
-    <t>Botón paro de emergencia</t>
-  </si>
-  <si>
     <t>Tren de pulsos</t>
   </si>
   <si>
@@ -85,6 +79,9 @@
   </si>
   <si>
     <t>Microcontrolador PIC18F4550</t>
+  </si>
+  <si>
+    <t>Botón emergencia</t>
   </si>
 </sst>
 </file>
@@ -100,7 +97,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,12 +118,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -186,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -257,54 +248,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDB0FED-EAD4-4F9F-A106-0A00C3942BCA}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,123 +636,114 @@
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="10" t="s">
-        <v>15</v>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="A6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="20" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="16" t="s">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="A10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:H10"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="A6:H6"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
